--- a/SchedulingData/dynamic9/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>241.04</v>
+        <v>201.22</v>
       </c>
       <c r="D2" t="n">
-        <v>274.72</v>
+        <v>247.28</v>
       </c>
       <c r="E2" t="n">
-        <v>11.728</v>
+        <v>15.772</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>233.46</v>
+        <v>248.74</v>
       </c>
       <c r="D3" t="n">
-        <v>284.52</v>
+        <v>316.3</v>
       </c>
       <c r="E3" t="n">
-        <v>11.728</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="4">
@@ -504,60 +504,60 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>247.8</v>
+        <v>217</v>
       </c>
       <c r="D4" t="n">
-        <v>296.5</v>
+        <v>259.1</v>
       </c>
       <c r="E4" t="n">
-        <v>14.46</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>296.5</v>
+        <v>247.28</v>
       </c>
       <c r="D5" t="n">
-        <v>355.26</v>
+        <v>295.84</v>
       </c>
       <c r="E5" t="n">
-        <v>11.704</v>
+        <v>13.036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>236.2</v>
+        <v>295.84</v>
       </c>
       <c r="D6" t="n">
-        <v>298.5</v>
+        <v>333.74</v>
       </c>
       <c r="E6" t="n">
-        <v>11.84</v>
+        <v>10.876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -565,165 +565,165 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>274.72</v>
+        <v>259.1</v>
       </c>
       <c r="D7" t="n">
-        <v>314.1</v>
+        <v>323.38</v>
       </c>
       <c r="E7" t="n">
-        <v>8.92</v>
+        <v>9.952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>264.12</v>
+        <v>323.38</v>
       </c>
       <c r="D8" t="n">
-        <v>321.62</v>
+        <v>365.5</v>
       </c>
       <c r="E8" t="n">
-        <v>12.408</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>225.96</v>
+        <v>212.64</v>
       </c>
       <c r="D9" t="n">
-        <v>288.66</v>
+        <v>257.44</v>
       </c>
       <c r="E9" t="n">
-        <v>9.824</v>
+        <v>12.956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>314.1</v>
+        <v>316.3</v>
       </c>
       <c r="D10" t="n">
-        <v>356.22</v>
+        <v>366.52</v>
       </c>
       <c r="E10" t="n">
-        <v>6.328</v>
+        <v>7.128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>298.5</v>
+        <v>366.52</v>
       </c>
       <c r="D11" t="n">
-        <v>346.94</v>
+        <v>426.42</v>
       </c>
       <c r="E11" t="n">
-        <v>9.135999999999999</v>
+        <v>4.268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>355.26</v>
+        <v>226.62</v>
       </c>
       <c r="D12" t="n">
-        <v>400.06</v>
+        <v>281.82</v>
       </c>
       <c r="E12" t="n">
-        <v>8.843999999999999</v>
+        <v>10.488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>346.94</v>
+        <v>281.82</v>
       </c>
       <c r="D13" t="n">
-        <v>411.96</v>
+        <v>336.92</v>
       </c>
       <c r="E13" t="n">
-        <v>6.224</v>
+        <v>8.068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>288.66</v>
+        <v>257.44</v>
       </c>
       <c r="D14" t="n">
-        <v>340.42</v>
+        <v>331.26</v>
       </c>
       <c r="E14" t="n">
-        <v>6.288</v>
+        <v>9.204000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>321.62</v>
+        <v>331.26</v>
       </c>
       <c r="D15" t="n">
-        <v>362.6</v>
+        <v>384.66</v>
       </c>
       <c r="E15" t="n">
-        <v>9.44</v>
+        <v>6.964</v>
       </c>
     </row>
     <row r="16">
@@ -732,22 +732,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>340.42</v>
+        <v>333.74</v>
       </c>
       <c r="D16" t="n">
-        <v>392.98</v>
+        <v>381.98</v>
       </c>
       <c r="E16" t="n">
-        <v>3.152</v>
+        <v>8.172000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,13 +755,51 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>284.52</v>
+        <v>336.92</v>
       </c>
       <c r="D17" t="n">
-        <v>331.32</v>
+        <v>373.92</v>
       </c>
       <c r="E17" t="n">
-        <v>8.667999999999999</v>
+        <v>5.008</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pond28</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>220.32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>281</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pond13</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>281</v>
+      </c>
+      <c r="D19" t="n">
+        <v>324.86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.644</v>
       </c>
     </row>
   </sheetData>
